--- a/Visualization/Patent_Counts_by_Year_and_Authority.xlsx
+++ b/Visualization/Patent_Counts_by_Year_and_Authority.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$366</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -28,6 +32,36 @@
     <t>世界知识产权组织</t>
   </si>
   <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>中国</t>
   </si>
   <si>
@@ -215,68 +249,381 @@
   </si>
   <si>
     <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -299,9 +646,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -309,11 +898,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -596,17 +1237,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -619,111 +1262,111 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" hidden="1" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" hidden="1" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" hidden="1" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" hidden="1" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" hidden="1" spans="1:3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" hidden="1" spans="1:3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" hidden="1" spans="1:3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" hidden="1" spans="1:3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" hidden="1" spans="1:3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" hidden="1" spans="1:3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>138</v>
@@ -731,10 +1374,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
         <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
       </c>
       <c r="C12">
         <v>231</v>
@@ -742,10 +1385,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>267</v>
@@ -753,10 +1396,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>694</v>
@@ -764,10 +1407,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>817</v>
@@ -775,10 +1418,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>989</v>
@@ -786,10 +1429,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>1011</v>
@@ -797,10 +1440,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>759</v>
@@ -808,10 +1451,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>710</v>
@@ -819,10 +1462,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C20">
         <v>737</v>
@@ -830,10 +1473,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C21">
         <v>741</v>
@@ -841,10 +1484,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
         <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>68</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -852,10 +1495,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -863,10 +1506,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -874,10 +1517,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -885,10 +1528,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -896,10 +1539,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -907,10 +1550,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -918,10 +1561,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -929,10 +1572,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -940,10 +1583,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -951,10 +1594,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
         <v>6</v>
-      </c>
-      <c r="B32" t="s">
-        <v>69</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -962,10 +1605,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -973,10 +1616,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -984,10 +1627,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -995,10 +1638,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -1006,3635 +1649,3662 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C37">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" hidden="1" spans="1:3">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" hidden="1" spans="1:3">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" hidden="1" spans="1:3">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" hidden="1" spans="1:3">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" hidden="1" spans="1:3">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" hidden="1" spans="1:3">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C43">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" hidden="1" spans="1:3">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C44">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" hidden="1" spans="1:3">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" hidden="1" spans="1:3">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C46">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" hidden="1" spans="1:3">
       <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
         <v>8</v>
-      </c>
-      <c r="B47" t="s">
-        <v>71</v>
       </c>
       <c r="C47">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" hidden="1" spans="1:3">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C48">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" hidden="1" spans="1:3">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C49">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" hidden="1" spans="1:3">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C50">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" hidden="1" spans="1:3">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" hidden="1" spans="1:3">
       <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" t="s">
         <v>9</v>
       </c>
-      <c r="B52" t="s">
-        <v>72</v>
-      </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" hidden="1" spans="1:3">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" hidden="1" spans="1:3">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C54">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" hidden="1" spans="1:3">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C55">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" hidden="1" spans="1:3">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C56">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" hidden="1" spans="1:3">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C57">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" hidden="1" spans="1:3">
       <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
         <v>10</v>
       </c>
-      <c r="B58" t="s">
-        <v>73</v>
-      </c>
       <c r="C58">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" hidden="1" spans="1:3">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C59">
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" hidden="1" spans="1:3">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C60">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" hidden="1" spans="1:3">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" hidden="1" spans="1:3">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" hidden="1" spans="1:3">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" hidden="1" spans="1:3">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C64">
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" hidden="1" spans="1:3">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C65">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" hidden="1" spans="1:3">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C66">
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" hidden="1" spans="1:3">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C67">
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" hidden="1" spans="1:3">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C68">
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" hidden="1" spans="1:3">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C69">
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" hidden="1" spans="1:3">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C70">
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" hidden="1" spans="1:3">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C71">
         <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" hidden="1" spans="1:3">
       <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" t="s">
         <v>12</v>
-      </c>
-      <c r="B72" t="s">
-        <v>75</v>
       </c>
       <c r="C72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" hidden="1" spans="1:3">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C73">
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" hidden="1" spans="1:3">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B74" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" hidden="1" spans="1:3">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B75" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" hidden="1" spans="1:3">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B76" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" hidden="1" spans="1:3">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B77" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" hidden="1" spans="1:3">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C78">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" hidden="1" spans="1:3">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C79">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" hidden="1" spans="1:3">
       <c r="A80" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" hidden="1" spans="1:3">
+      <c r="A81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" t="s">
         <v>13</v>
       </c>
-      <c r="B80" t="s">
-        <v>75</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" hidden="1" spans="1:3">
+      <c r="A82" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" hidden="1" spans="1:3">
+      <c r="A83" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" t="s">
         <v>13</v>
       </c>
-      <c r="B81" t="s">
-        <v>76</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>14</v>
-      </c>
-      <c r="B82" t="s">
-        <v>68</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>14</v>
-      </c>
-      <c r="B83" t="s">
-        <v>76</v>
-      </c>
       <c r="C83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" hidden="1" spans="1:3">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B84" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C84">
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" hidden="1" spans="1:3">
       <c r="A85" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B85" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C85">
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" hidden="1" spans="1:3">
       <c r="A86" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B86" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C86">
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" hidden="1" spans="1:3">
       <c r="A87" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B87" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C87">
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" hidden="1" spans="1:3">
       <c r="A88" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B88" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C88">
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" hidden="1" spans="1:3">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B89" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C89">
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" hidden="1" spans="1:3">
       <c r="A90" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B90" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C90">
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" hidden="1" spans="1:3">
       <c r="A91" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C91">
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" hidden="1" spans="1:3">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B92" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C92">
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" hidden="1" spans="1:3">
       <c r="A93" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B93" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C93">
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" hidden="1" spans="1:3">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B94" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" hidden="1" spans="1:3">
       <c r="A95" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B95" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" hidden="1" spans="1:3">
       <c r="A96" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B96" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" hidden="1" spans="1:3">
       <c r="A97" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B97" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" hidden="1" spans="1:3">
       <c r="A98" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B98" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C98">
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" hidden="1" spans="1:3">
       <c r="A99" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B99" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" hidden="1" spans="1:3">
       <c r="A100" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B100" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C100">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" hidden="1" spans="1:3">
       <c r="A101" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B101" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" hidden="1" spans="1:3">
       <c r="A102" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B102" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" hidden="1" spans="1:3">
       <c r="A103" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B103" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C103">
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" hidden="1" spans="1:3">
       <c r="A104" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B104" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C104">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" hidden="1" spans="1:3">
       <c r="A105" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B105" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C105">
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" hidden="1" spans="1:3">
       <c r="A106" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B106" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C106">
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" hidden="1" spans="1:3">
       <c r="A107" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B107" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C107">
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" hidden="1" spans="1:3">
       <c r="A108" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B108" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C108">
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" hidden="1" spans="1:3">
       <c r="A109" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B109" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C109">
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" hidden="1" spans="1:3">
       <c r="A110" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B110" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C110">
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" hidden="1" spans="1:3">
       <c r="A111" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B111" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C111">
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" hidden="1" spans="1:3">
       <c r="A112" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B112" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C112">
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" hidden="1" spans="1:3">
       <c r="A113" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B113" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" hidden="1" spans="1:3">
       <c r="A114" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B114" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C114">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" hidden="1" spans="1:3">
       <c r="A115" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B115" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" hidden="1" spans="1:3">
       <c r="A116" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B116" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C116">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" hidden="1" spans="1:3">
       <c r="A117" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B117" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C117">
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" hidden="1" spans="1:3">
       <c r="A118" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B118" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" hidden="1" spans="1:3">
       <c r="A119" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B119" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" hidden="1" spans="1:3">
       <c r="A120" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B120" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" hidden="1" spans="1:3">
       <c r="A121" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B121" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" hidden="1" spans="1:3">
       <c r="A122" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B122" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C122">
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" hidden="1" spans="1:3">
       <c r="A123" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B123" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C123">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" hidden="1" spans="1:3">
       <c r="A124" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B124" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C124">
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" hidden="1" spans="1:3">
       <c r="A125" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B125" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C125">
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" hidden="1" spans="1:3">
       <c r="A126" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B126" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C126">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" hidden="1" spans="1:3">
       <c r="A127" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B127" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C127">
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" hidden="1" spans="1:3">
       <c r="A128" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B128" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" hidden="1" spans="1:3">
       <c r="A129" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B129" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C129">
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" hidden="1" spans="1:3">
       <c r="A130" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B130" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" hidden="1" spans="1:3">
       <c r="A131" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B131" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" hidden="1" spans="1:3">
       <c r="A132" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B132" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" hidden="1" spans="1:3">
       <c r="A133" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B133" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C133">
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" hidden="1" spans="1:3">
       <c r="A134" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B134" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C134">
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" hidden="1" spans="1:3">
       <c r="A135" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B135" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C135">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" hidden="1" spans="1:3">
       <c r="A136" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B136" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" hidden="1" spans="1:3">
       <c r="A137" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B137" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" hidden="1" spans="1:3">
       <c r="A138" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B138" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" hidden="1" spans="1:3">
       <c r="A139" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B139" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C139">
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" hidden="1" spans="1:3">
       <c r="A140" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B140" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C140">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" hidden="1" spans="1:3">
       <c r="A141" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B141" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C141">
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" hidden="1" spans="1:3">
       <c r="A142" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B142" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C142">
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" hidden="1" spans="1:3">
       <c r="A143" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B143" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C143">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" hidden="1" spans="1:3">
       <c r="A144" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B144" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C144">
         <v>40</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" hidden="1" spans="1:3">
       <c r="A145" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B145" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C145">
         <v>34</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" hidden="1" spans="1:3">
       <c r="A146" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B146" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C146">
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" hidden="1" spans="1:3">
       <c r="A147" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B147" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C147">
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" hidden="1" spans="1:3">
       <c r="A148" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B148" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C148">
         <v>39</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" hidden="1" spans="1:3">
       <c r="A149" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B149" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C149">
         <v>42</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" hidden="1" spans="1:3">
       <c r="A150" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B150" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C150">
         <v>54</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" hidden="1" spans="1:3">
       <c r="A151" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B151" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C151">
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" hidden="1" spans="1:3">
       <c r="A152" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B152" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C152">
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" hidden="1" spans="1:3">
       <c r="A153" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B153" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" hidden="1" spans="1:3">
       <c r="A154" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B154" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C154">
         <v>29</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" hidden="1" spans="1:3">
       <c r="A155" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B155" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C155">
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" hidden="1" spans="1:3">
       <c r="A156" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B156" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C156">
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" hidden="1" spans="1:3">
       <c r="A157" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B157" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C157">
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" hidden="1" spans="1:3">
       <c r="A158" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B158" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C158">
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" hidden="1" spans="1:3">
       <c r="A159" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B159" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C159">
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" hidden="1" spans="1:3">
       <c r="A160" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B160" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C160">
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" hidden="1" spans="1:3">
       <c r="A161" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B161" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C161">
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" hidden="1" spans="1:3">
       <c r="A162" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B162" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C162">
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" hidden="1" spans="1:3">
       <c r="A163" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B163" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C163">
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" hidden="1" spans="1:3">
       <c r="A164" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B164" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" hidden="1" spans="1:3">
       <c r="A165" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B165" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" hidden="1" spans="1:3">
       <c r="A166" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B166" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C166">
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" hidden="1" spans="1:3">
       <c r="A167" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B167" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C167">
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" hidden="1" spans="1:3">
       <c r="A168" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B168" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C168">
         <v>39</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" hidden="1" spans="1:3">
       <c r="A169" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C169">
         <v>44</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" hidden="1" spans="1:3">
       <c r="A170" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B170" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C170">
         <v>43</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" hidden="1" spans="1:3">
       <c r="A171" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B171" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C171">
         <v>73</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" hidden="1" spans="1:3">
       <c r="A172" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B172" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C172">
         <v>48</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" hidden="1" spans="1:3">
       <c r="A173" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B173" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C173">
         <v>42</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" hidden="1" spans="1:3">
       <c r="A174" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B174" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C174">
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" hidden="1" spans="1:3">
       <c r="A175" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B175" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C175">
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" hidden="1" spans="1:3">
       <c r="A176" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B176" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" hidden="1" spans="1:3">
       <c r="A177" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B177" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C177">
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" hidden="1" spans="1:3">
       <c r="A178" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B178" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C178">
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" hidden="1" spans="1:3">
       <c r="A179" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B179" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C179">
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" hidden="1" spans="1:3">
       <c r="A180" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B180" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C180">
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" hidden="1" spans="1:3">
       <c r="A181" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B181" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C181">
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" hidden="1" spans="1:3">
       <c r="A182" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B182" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C182">
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" hidden="1" spans="1:3">
       <c r="A183" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B183" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C183">
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" hidden="1" spans="1:3">
       <c r="A184" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B184" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C184">
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" hidden="1" spans="1:3">
       <c r="A185" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B185" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C185">
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" hidden="1" spans="1:3">
       <c r="A186" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B186" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" hidden="1" spans="1:3">
       <c r="A187" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B187" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C187">
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" hidden="1" spans="1:3">
       <c r="A188" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B188" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C188">
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" hidden="1" spans="1:3">
       <c r="A189" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B189" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C189">
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" hidden="1" spans="1:3">
       <c r="A190" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B190" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C190">
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" hidden="1" spans="1:3">
       <c r="A191" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B191" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C191">
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" hidden="1" spans="1:3">
       <c r="A192" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B192" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C192">
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" hidden="1" spans="1:3">
       <c r="A193" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B193" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C193">
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" hidden="1" spans="1:3">
       <c r="A194" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B194" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" hidden="1" spans="1:3">
       <c r="A195" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B195" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" hidden="1" spans="1:3">
       <c r="A196" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B196" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" hidden="1" spans="1:3">
       <c r="A197" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B197" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C197">
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" hidden="1" spans="1:3">
       <c r="A198" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B198" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" hidden="1" spans="1:3">
       <c r="A199" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B199" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" hidden="1" spans="1:3">
       <c r="A200" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B200" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" hidden="1" spans="1:3">
       <c r="A201" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B201" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C201">
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" hidden="1" spans="1:3">
       <c r="A202" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B202" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C202">
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" hidden="1" spans="1:3">
       <c r="A203" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B203" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C203">
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" hidden="1" spans="1:3">
       <c r="A204" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B204" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" hidden="1" spans="1:3">
       <c r="A205" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B205" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C205">
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" hidden="1" spans="1:3">
       <c r="A206" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B206" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C206">
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" hidden="1" spans="1:3">
       <c r="A207" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B207" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C207">
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" hidden="1" spans="1:3">
       <c r="A208" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B208" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C208">
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" hidden="1" spans="1:3">
       <c r="A209" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B209" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C209">
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" hidden="1" spans="1:3">
       <c r="A210" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B210" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C210">
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" hidden="1" spans="1:3">
       <c r="A211" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B211" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C211">
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" hidden="1" spans="1:3">
       <c r="A212" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B212" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C212">
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" hidden="1" spans="1:3">
       <c r="A213" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B213" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C213">
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" hidden="1" spans="1:3">
       <c r="A214" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B214" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" hidden="1" spans="1:3">
       <c r="A215" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B215" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C215">
         <v>37</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" hidden="1" spans="1:3">
       <c r="A216" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B216" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C216">
         <v>21</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" hidden="1" spans="1:3">
       <c r="A217" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B217" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C217">
         <v>52</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" hidden="1" spans="1:3">
       <c r="A218" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B218" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C218">
         <v>52</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" hidden="1" spans="1:3">
       <c r="A219" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B219" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C219">
         <v>37</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" hidden="1" spans="1:3">
       <c r="A220" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B220" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C220">
         <v>92</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" hidden="1" spans="1:3">
       <c r="A221" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B221" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C221">
         <v>89</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" hidden="1" spans="1:3">
       <c r="A222" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B222" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C222">
         <v>103</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" hidden="1" spans="1:3">
       <c r="A223" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B223" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C223">
         <v>72</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" hidden="1" spans="1:3">
       <c r="A224" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B224" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C224">
         <v>51</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" hidden="1" spans="1:3">
       <c r="A225" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B225" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C225">
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" hidden="1" spans="1:3">
       <c r="A226" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B226" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C226">
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" hidden="1" spans="1:3">
       <c r="A227" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B227" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C227">
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" hidden="1" spans="1:3">
       <c r="A228" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B228" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C228">
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" hidden="1" spans="1:3">
       <c r="A229" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B229" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C229">
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" hidden="1" spans="1:3">
       <c r="A230" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B230" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C230">
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" hidden="1" spans="1:3">
       <c r="A231" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B231" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C231">
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" hidden="1" spans="1:3">
       <c r="A232" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B232" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C232">
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" hidden="1" spans="1:3">
       <c r="A233" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B233" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C233">
         <v>117</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" hidden="1" spans="1:3">
       <c r="A234" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B234" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C234">
         <v>89</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" hidden="1" spans="1:3">
       <c r="A235" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B235" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C235">
         <v>103</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" hidden="1" spans="1:3">
       <c r="A236" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B236" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C236">
         <v>103</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" hidden="1" spans="1:3">
       <c r="A237" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B237" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C237">
         <v>122</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" hidden="1" spans="1:3">
       <c r="A238" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B238" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C238">
         <v>174</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" hidden="1" spans="1:3">
       <c r="A239" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B239" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C239">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" hidden="1" spans="1:3">
       <c r="A240" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B240" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C240">
         <v>161</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" hidden="1" spans="1:3">
       <c r="A241" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B241" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C241">
         <v>164</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" hidden="1" spans="1:3">
       <c r="A242" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B242" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C242">
         <v>135</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" hidden="1" spans="1:3">
       <c r="A243" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B243" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C243">
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" hidden="1" spans="1:3">
       <c r="A244" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B244" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C244">
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" hidden="1" spans="1:3">
       <c r="A245" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B245" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C245">
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" hidden="1" spans="1:3">
       <c r="A246" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C246">
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" hidden="1" spans="1:3">
       <c r="A247" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B247" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C247">
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" hidden="1" spans="1:3">
       <c r="A248" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B248" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" hidden="1" spans="1:3">
       <c r="A249" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B249" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" hidden="1" spans="1:3">
       <c r="A250" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B250" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C250">
         <v>59</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" hidden="1" spans="1:3">
       <c r="A251" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B251" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C251">
         <v>62</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" hidden="1" spans="1:3">
       <c r="A252" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B252" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C252">
         <v>45</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" hidden="1" spans="1:3">
       <c r="A253" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B253" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C253">
         <v>69</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" hidden="1" spans="1:3">
       <c r="A254" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B254" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C254">
         <v>40</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" hidden="1" spans="1:3">
       <c r="A255" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B255" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C255">
         <v>90</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" hidden="1" spans="1:3">
       <c r="A256" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B256" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C256">
         <v>109</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" hidden="1" spans="1:3">
       <c r="A257" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B257" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C257">
         <v>67</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" hidden="1" spans="1:3">
       <c r="A258" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B258" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C258">
         <v>87</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" hidden="1" spans="1:3">
       <c r="A259" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B259" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C259">
         <v>59</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" hidden="1" spans="1:3">
       <c r="A260" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B260" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C260">
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" hidden="1" spans="1:3">
       <c r="A261" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B261" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C261">
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" hidden="1" spans="1:3">
       <c r="A262" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B262" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C262">
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" hidden="1" spans="1:3">
       <c r="A263" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B263" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C263">
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" hidden="1" spans="1:3">
       <c r="A264" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B264" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C264">
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" hidden="1" spans="1:3">
       <c r="A265" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B265" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C265">
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" hidden="1" spans="1:3">
       <c r="A266" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B266" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C266">
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" hidden="1" spans="1:3">
       <c r="A267" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B267" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" hidden="1" spans="1:3">
       <c r="A268" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B268" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C268">
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" hidden="1" spans="1:3">
       <c r="A269" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B269" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C269">
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" hidden="1" spans="1:3">
       <c r="A270" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B270" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" hidden="1" spans="1:3">
       <c r="A271" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B271" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" hidden="1" spans="1:3">
       <c r="A272" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B272" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C272">
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" hidden="1" spans="1:3">
       <c r="A273" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B273" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" hidden="1" spans="1:3">
       <c r="A274" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B274" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" hidden="1" spans="1:3">
       <c r="A275" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B275" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" hidden="1" spans="1:3">
       <c r="A276" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B276" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C276">
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" hidden="1" spans="1:3">
       <c r="A277" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B277" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C277">
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" hidden="1" spans="1:3">
       <c r="A278" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B278" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C278">
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" hidden="1" spans="1:3">
       <c r="A279" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B279" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C279">
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" hidden="1" spans="1:3">
       <c r="A280" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B280" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C280">
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" hidden="1" spans="1:3">
       <c r="A281" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B281" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C281">
         <v>14</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" hidden="1" spans="1:3">
       <c r="A282" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B282" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C282">
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" hidden="1" spans="1:3">
       <c r="A283" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B283" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C283">
         <v>14</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" hidden="1" spans="1:3">
       <c r="A284" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B284" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C284">
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" hidden="1" spans="1:3">
       <c r="A285" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B285" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C285">
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" hidden="1" spans="1:3">
       <c r="A286" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B286" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" hidden="1" spans="1:3">
       <c r="A287" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B287" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C287">
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" hidden="1" spans="1:3">
       <c r="A288" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B288" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C288">
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" hidden="1" spans="1:3">
       <c r="A289" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B289" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C289">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" hidden="1" spans="1:3">
       <c r="A290" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B290" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C290">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" hidden="1" spans="1:3">
       <c r="A291" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B291" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C291">
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" hidden="1" spans="1:3">
       <c r="A292" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B292" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C292">
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" hidden="1" spans="1:3">
       <c r="A293" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B293" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C293">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" hidden="1" spans="1:3">
       <c r="A294" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B294" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C294">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" hidden="1" spans="1:3">
       <c r="A295" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B295" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C295">
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" hidden="1" spans="1:3">
       <c r="A296" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B296" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" hidden="1" spans="1:3">
       <c r="A297" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B297" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C297">
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" hidden="1" spans="1:3">
       <c r="A298" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B298" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C298">
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" hidden="1" spans="1:3">
       <c r="A299" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B299" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C299">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" hidden="1" spans="1:3">
       <c r="A300" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B300" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C300">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" hidden="1" spans="1:3">
       <c r="A301" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B301" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C301">
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" hidden="1" spans="1:3">
       <c r="A302" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B302" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C302">
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" hidden="1" spans="1:3">
       <c r="A303" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B303" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C303">
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" hidden="1" spans="1:3">
       <c r="A304" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B304" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C304">
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" hidden="1" spans="1:3">
       <c r="A305" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B305" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C305">
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" hidden="1" spans="1:3">
       <c r="A306" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B306" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C306">
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" hidden="1" spans="1:3">
       <c r="A307" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B307" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C307">
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" hidden="1" spans="1:3">
       <c r="A308" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B308" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C308">
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" hidden="1" spans="1:3">
       <c r="A309" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B309" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C309">
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" hidden="1" spans="1:3">
       <c r="A310" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B310" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C310">
         <v>143</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" hidden="1" spans="1:3">
       <c r="A311" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B311" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C311">
         <v>159</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" hidden="1" spans="1:3">
       <c r="A312" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B312" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C312">
         <v>145</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" hidden="1" spans="1:3">
       <c r="A313" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B313" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C313">
         <v>172</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" hidden="1" spans="1:3">
       <c r="A314" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B314" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C314">
         <v>216</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" hidden="1" spans="1:3">
       <c r="A315" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B315" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C315">
         <v>263</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" hidden="1" spans="1:3">
       <c r="A316" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B316" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C316">
         <v>347</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" hidden="1" spans="1:3">
       <c r="A317" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B317" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C317">
         <v>293</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" hidden="1" spans="1:3">
       <c r="A318" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B318" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C318">
         <v>446</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" hidden="1" spans="1:3">
       <c r="A319" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B319" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C319">
         <v>424</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" hidden="1" spans="1:3">
       <c r="A320" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B320" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C320">
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" hidden="1" spans="1:3">
       <c r="A321" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B321" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C321">
         <v>19</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" hidden="1" spans="1:3">
       <c r="A322" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B322" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C322">
         <v>30</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" hidden="1" spans="1:3">
       <c r="A323" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B323" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C323">
         <v>36</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" hidden="1" spans="1:3">
       <c r="A324" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B324" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C324">
         <v>31</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" hidden="1" spans="1:3">
       <c r="A325" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B325" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C325">
         <v>23</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" hidden="1" spans="1:3">
       <c r="A326" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B326" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C326">
         <v>31</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" hidden="1" spans="1:3">
       <c r="A327" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B327" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C327">
         <v>60</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" hidden="1" spans="1:3">
       <c r="A328" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B328" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C328">
         <v>51</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" hidden="1" spans="1:3">
       <c r="A329" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B329" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C329">
         <v>59</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" hidden="1" spans="1:3">
       <c r="A330" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B330" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C330">
         <v>44</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" hidden="1" spans="1:3">
       <c r="A331" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B331" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C331">
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" hidden="1" spans="1:3">
       <c r="A332" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B332" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C332">
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" hidden="1" spans="1:3">
       <c r="A333" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B333" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C333">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" hidden="1" spans="1:3">
       <c r="A334" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B334" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C334">
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" hidden="1" spans="1:3">
       <c r="A335" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B335" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C335">
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" hidden="1" spans="1:3">
       <c r="A336" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B336" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C336">
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" hidden="1" spans="1:3">
       <c r="A337" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B337" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C337">
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" hidden="1" spans="1:3">
       <c r="A338" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B338" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C338">
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" hidden="1" spans="1:3">
       <c r="A339" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B339" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C339">
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" hidden="1" spans="1:3">
       <c r="A340" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B340" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C340">
         <v>10</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" hidden="1" spans="1:3">
       <c r="A341" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B341" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C341">
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" hidden="1" spans="1:3">
       <c r="A342" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B342" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C342">
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" hidden="1" spans="1:3">
       <c r="A343" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B343" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C343">
         <v>10</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" hidden="1" spans="1:3">
       <c r="A344" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B344" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C344">
         <v>14</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" hidden="1" spans="1:3">
       <c r="A345" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B345" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C345">
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" hidden="1" spans="1:3">
       <c r="A346" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B346" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C346">
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" hidden="1" spans="1:3">
       <c r="A347" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B347" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C347">
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" hidden="1" spans="1:3">
       <c r="A348" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B348" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C348">
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" hidden="1" spans="1:3">
       <c r="A349" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B349" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C349">
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" hidden="1" spans="1:3">
       <c r="A350" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B350" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C350">
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" hidden="1" spans="1:3">
       <c r="A351" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B351" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C351">
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" hidden="1" spans="1:3">
       <c r="A352" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B352" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C352">
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" hidden="1" spans="1:3">
       <c r="A353" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B353" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C353">
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" hidden="1" spans="1:3">
       <c r="A354" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B354" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C354">
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" hidden="1" spans="1:3">
       <c r="A355" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B355" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C355">
         <v>14</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" hidden="1" spans="1:3">
       <c r="A356" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B356" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C356">
         <v>35</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" hidden="1" spans="1:3">
       <c r="A357" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B357" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C357">
         <v>27</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" hidden="1" spans="1:3">
       <c r="A358" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B358" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C358">
         <v>33</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" hidden="1" spans="1:3">
       <c r="A359" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B359" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C359">
         <v>21</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" hidden="1" spans="1:3">
       <c r="A360" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B360" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C360">
         <v>34</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" hidden="1" spans="1:3">
       <c r="A361" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B361" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C361">
         <v>40</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" hidden="1" spans="1:3">
       <c r="A362" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B362" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C362">
         <v>45</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" hidden="1" spans="1:3">
       <c r="A363" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B363" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C363">
         <v>25</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" hidden="1" spans="1:3">
       <c r="A364" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B364" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C364">
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" hidden="1" spans="1:3">
       <c r="A365" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B365" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C365">
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" hidden="1" spans="1:3">
       <c r="A366" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B366" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C366">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C366">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="中国"/>
+        <filter val="中国台湾"/>
+        <filter val="中国香港"/>
+      </filters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Visualization/Patent_Counts_by_Year_and_Authority.xlsx
+++ b/Visualization/Patent_Counts_by_Year_and_Authority.xlsx
@@ -261,7 +261,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,13 +271,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -747,28 +740,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -777,118 +773,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1246,7 +1239,7 @@
   <dimension ref="A1:C366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C37"/>
+      <selection activeCell="C276" sqref="C276:C285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1372,7 +1365,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" hidden="1" spans="1:3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1383,7 +1376,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" hidden="1" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1394,7 +1387,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" hidden="1" spans="1:3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1405,7 +1398,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" hidden="1" spans="1:3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1416,7 +1409,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" hidden="1" spans="1:3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1427,7 +1420,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" hidden="1" spans="1:3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1438,7 +1431,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" hidden="1" spans="1:3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1449,7 +1442,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" hidden="1" spans="1:3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1460,7 +1453,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" hidden="1" spans="1:3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1471,7 +1464,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" hidden="1" spans="1:3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1482,7 +1475,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" hidden="1" spans="1:3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1493,7 +1486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" hidden="1" spans="1:3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1504,7 +1497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" hidden="1" spans="1:3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1515,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" hidden="1" spans="1:3">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1526,7 +1519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" hidden="1" spans="1:3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1537,7 +1530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" hidden="1" spans="1:3">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1548,7 +1541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" hidden="1" spans="1:3">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1559,7 +1552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" hidden="1" spans="1:3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1570,7 +1563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" hidden="1" spans="1:3">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1581,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" hidden="1" spans="1:3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1592,7 +1585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" hidden="1" spans="1:3">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1603,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" hidden="1" spans="1:3">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1614,7 +1607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" hidden="1" spans="1:3">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1625,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" hidden="1" spans="1:3">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1636,7 +1629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" hidden="1" spans="1:3">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1647,7 +1640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" hidden="1" spans="1:3">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -4276,7 +4269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" hidden="1" spans="1:3">
+    <row r="276" spans="1:3">
       <c r="A276" t="s">
         <v>58</v>
       </c>
@@ -4287,7 +4280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" hidden="1" spans="1:3">
+    <row r="277" spans="1:3">
       <c r="A277" t="s">
         <v>58</v>
       </c>
@@ -4298,7 +4291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" hidden="1" spans="1:3">
+    <row r="278" spans="1:3">
       <c r="A278" t="s">
         <v>58</v>
       </c>
@@ -4309,7 +4302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" hidden="1" spans="1:3">
+    <row r="279" spans="1:3">
       <c r="A279" t="s">
         <v>58</v>
       </c>
@@ -4320,7 +4313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" hidden="1" spans="1:3">
+    <row r="280" spans="1:3">
       <c r="A280" t="s">
         <v>58</v>
       </c>
@@ -4331,7 +4324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281" hidden="1" spans="1:3">
+    <row r="281" spans="1:3">
       <c r="A281" t="s">
         <v>58</v>
       </c>
@@ -4342,7 +4335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="282" hidden="1" spans="1:3">
+    <row r="282" spans="1:3">
       <c r="A282" t="s">
         <v>58</v>
       </c>
@@ -4353,7 +4346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" hidden="1" spans="1:3">
+    <row r="283" spans="1:3">
       <c r="A283" t="s">
         <v>58</v>
       </c>
@@ -4364,7 +4357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="284" hidden="1" spans="1:3">
+    <row r="284" spans="1:3">
       <c r="A284" t="s">
         <v>58</v>
       </c>
@@ -4375,7 +4368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" hidden="1" spans="1:3">
+    <row r="285" spans="1:3">
       <c r="A285" t="s">
         <v>58</v>
       </c>
@@ -5281,9 +5274,7 @@
   <autoFilter ref="A1:C366">
     <filterColumn colId="0">
       <filters>
-        <filter val="中国"/>
-        <filter val="中国台湾"/>
-        <filter val="中国香港"/>
+        <filter val="澳大利亚"/>
       </filters>
     </filterColumn>
     <extLst/>
